--- a/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H2">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I2">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J2">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.127706855121299</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N2">
-        <v>0.127706855121299</v>
+        <v>0.481669</v>
       </c>
       <c r="O2">
-        <v>0.01620821741097792</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P2">
-        <v>0.01620821741097792</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q2">
-        <v>0.5723005538689837</v>
+        <v>0.7217551469303333</v>
       </c>
       <c r="R2">
-        <v>0.5723005538689837</v>
+        <v>4.330530881582</v>
       </c>
       <c r="S2">
-        <v>0.002229068076040313</v>
+        <v>0.002427909490001309</v>
       </c>
       <c r="T2">
-        <v>0.002229068076040313</v>
+        <v>0.002520239197291789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H3">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I3">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J3">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.553741808692665</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N3">
-        <v>0.553741808692665</v>
+        <v>1.699334</v>
       </c>
       <c r="O3">
-        <v>0.07027945067094503</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P3">
-        <v>0.07027945067094503</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q3">
-        <v>2.481517092518013</v>
+        <v>2.546360801408666</v>
       </c>
       <c r="R3">
-        <v>2.481517092518013</v>
+        <v>15.278164808452</v>
       </c>
       <c r="S3">
-        <v>0.009665324441301507</v>
+        <v>0.008565693755009941</v>
       </c>
       <c r="T3">
-        <v>0.009665324441301507</v>
+        <v>0.008891434067981633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H4">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I4">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J4">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.887055446878028</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N4">
-        <v>0.887055446878028</v>
+        <v>2.667599</v>
       </c>
       <c r="O4">
-        <v>0.1125827389996808</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P4">
-        <v>0.1125827389996808</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q4">
-        <v>3.975215919917568</v>
+        <v>3.997253940353667</v>
       </c>
       <c r="R4">
-        <v>3.975215919917568</v>
+        <v>23.983523642122</v>
       </c>
       <c r="S4">
-        <v>0.01548317023730161</v>
+        <v>0.01344634786049756</v>
       </c>
       <c r="T4">
-        <v>0.01548317023730161</v>
+        <v>0.01395769203012106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H5">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I5">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J5">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>6.3106384182577</v>
+        <v>0.088632</v>
       </c>
       <c r="N5">
-        <v>6.3106384182577</v>
+        <v>0.265896</v>
       </c>
       <c r="O5">
-        <v>0.8009295929183963</v>
+        <v>0.01051937432637061</v>
       </c>
       <c r="P5">
-        <v>0.8009295929183963</v>
+        <v>0.01432936202661939</v>
       </c>
       <c r="Q5">
-        <v>28.28025056764104</v>
+        <v>0.398430886248</v>
       </c>
       <c r="R5">
-        <v>28.28025056764104</v>
+        <v>2.390585317488</v>
       </c>
       <c r="S5">
-        <v>0.1101494718056502</v>
+        <v>0.001340280196054527</v>
       </c>
       <c r="T5">
-        <v>0.1101494718056502</v>
+        <v>0.001391249014578679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.416662286917729</v>
+        <v>4.495339</v>
       </c>
       <c r="H6">
-        <v>0.416662286917729</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I6">
-        <v>0.01278681305501845</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J6">
-        <v>0.01278681305501845</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.127706855121299</v>
+        <v>6.7207635</v>
       </c>
       <c r="N6">
-        <v>0.127706855121299</v>
+        <v>13.441527</v>
       </c>
       <c r="O6">
-        <v>0.01620821741097792</v>
+        <v>0.797660292168841</v>
       </c>
       <c r="P6">
-        <v>0.01620821741097792</v>
+        <v>0.7243753443962272</v>
       </c>
       <c r="Q6">
-        <v>0.05321063030991154</v>
+        <v>30.2121102713265</v>
       </c>
       <c r="R6">
-        <v>0.05321063030991154</v>
+        <v>120.848441085306</v>
       </c>
       <c r="S6">
-        <v>0.0002072514459892698</v>
+        <v>0.1016304068667762</v>
       </c>
       <c r="T6">
-        <v>0.0002072514459892698</v>
+        <v>0.07033017116911387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H7">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I7">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J7">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.553741808692665</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N7">
-        <v>0.553741808692665</v>
+        <v>0.481669</v>
       </c>
       <c r="O7">
-        <v>0.07027945067094503</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P7">
-        <v>0.07027945067094503</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q7">
-        <v>0.2307233283718454</v>
+        <v>0.0743530492601111</v>
       </c>
       <c r="R7">
-        <v>0.2307233283718454</v>
+        <v>0.669177443341</v>
       </c>
       <c r="S7">
-        <v>0.0008986501973387651</v>
+        <v>0.0002501159495390246</v>
       </c>
       <c r="T7">
-        <v>0.0008986501973387651</v>
+        <v>0.0003894412183559808</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H8">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J8">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.887055446878028</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N8">
-        <v>0.887055446878028</v>
+        <v>1.699334</v>
       </c>
       <c r="O8">
-        <v>0.1125827389996808</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P8">
-        <v>0.1125827389996808</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q8">
-        <v>0.3696025511190272</v>
+        <v>0.2623184481695555</v>
       </c>
       <c r="R8">
-        <v>0.3696025511190272</v>
+        <v>2.360866033526</v>
       </c>
       <c r="S8">
-        <v>0.001439574436810853</v>
+        <v>0.0008824120651193016</v>
       </c>
       <c r="T8">
-        <v>0.001439574436810853</v>
+        <v>0.001373953281929587</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H9">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J9">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.3106384182577</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N9">
-        <v>6.3106384182577</v>
+        <v>2.667599</v>
       </c>
       <c r="O9">
-        <v>0.8009295929183963</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P9">
-        <v>0.8009295929183963</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q9">
-        <v>2.629405035262133</v>
+        <v>0.4117851052345556</v>
       </c>
       <c r="R9">
-        <v>2.629405035262133</v>
+        <v>3.706065947111</v>
       </c>
       <c r="S9">
-        <v>0.01024133697487956</v>
+        <v>0.001385202404294967</v>
       </c>
       <c r="T9">
-        <v>0.01024133697487956</v>
+        <v>0.002156819319169795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.76524644466899</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H10">
-        <v>6.76524644466899</v>
+        <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.2076164420808054</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J10">
-        <v>0.2076164420808054</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.127706855121299</v>
+        <v>0.088632</v>
       </c>
       <c r="N10">
-        <v>0.127706855121299</v>
+        <v>0.265896</v>
       </c>
       <c r="O10">
-        <v>0.01620821741097792</v>
+        <v>0.01051937432637061</v>
       </c>
       <c r="P10">
-        <v>0.01620821741097792</v>
+        <v>0.01432936202661939</v>
       </c>
       <c r="Q10">
-        <v>0.8639683475692259</v>
+        <v>0.041045154216</v>
       </c>
       <c r="R10">
-        <v>0.8639683475692259</v>
+        <v>0.369406387944</v>
       </c>
       <c r="S10">
-        <v>0.003365092431339399</v>
+        <v>0.0001380716436362492</v>
       </c>
       <c r="T10">
-        <v>0.003365092431339399</v>
+        <v>0.0002149834475458912</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.76524644466899</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H11">
-        <v>6.76524644466899</v>
+        <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.2076164420808054</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J11">
-        <v>0.2076164420808054</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.553741808692665</v>
+        <v>6.7207635</v>
       </c>
       <c r="N11">
-        <v>0.553741808692665</v>
+        <v>13.441527</v>
       </c>
       <c r="O11">
-        <v>0.07027945067094503</v>
+        <v>0.797660292168841</v>
       </c>
       <c r="P11">
-        <v>0.07027945067094503</v>
+        <v>0.7243753443962272</v>
       </c>
       <c r="Q11">
-        <v>3.746199802522628</v>
+        <v>3.1123609340505</v>
       </c>
       <c r="R11">
-        <v>3.746199802522628</v>
+        <v>18.674165604303</v>
       </c>
       <c r="S11">
-        <v>0.01459116949969508</v>
+        <v>0.010469659524049</v>
       </c>
       <c r="T11">
-        <v>0.01459116949969508</v>
+        <v>0.01086780476103883</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H12">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I12">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J12">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.887055446878028</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N12">
-        <v>0.887055446878028</v>
+        <v>0.481669</v>
       </c>
       <c r="O12">
-        <v>0.1125827389996808</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P12">
-        <v>0.1125827389996808</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q12">
-        <v>6.00114870821584</v>
+        <v>1.091510067381222</v>
       </c>
       <c r="R12">
-        <v>6.00114870821584</v>
+        <v>9.823590606430999</v>
       </c>
       <c r="S12">
-        <v>0.02337402771082565</v>
+        <v>0.003671726709948401</v>
       </c>
       <c r="T12">
-        <v>0.02337402771082565</v>
+        <v>0.00571703534311952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,122 +1216,122 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H13">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I13">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J13">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.3106384182577</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N13">
-        <v>6.3106384182577</v>
+        <v>1.699334</v>
       </c>
       <c r="O13">
-        <v>0.8009295929183963</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P13">
-        <v>0.8009295929183963</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q13">
-        <v>42.69302412270945</v>
+        <v>3.85086058858511</v>
       </c>
       <c r="R13">
-        <v>42.69302412270945</v>
+        <v>34.657745297266</v>
       </c>
       <c r="S13">
-        <v>0.1662861524389453</v>
+        <v>0.01295389580172993</v>
       </c>
       <c r="T13">
-        <v>0.1662861524389453</v>
+        <v>0.0201697691521868</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.039248735204421</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H14">
-        <v>8.039248735204421</v>
+        <v>20.394899</v>
       </c>
       <c r="I14">
-        <v>0.246713882939326</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J14">
-        <v>0.246713882939326</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.127706855121299</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N14">
-        <v>0.127706855121299</v>
+        <v>2.667599</v>
       </c>
       <c r="O14">
-        <v>0.01620821741097792</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P14">
-        <v>0.01620821741097792</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q14">
-        <v>1.026667173510837</v>
+        <v>6.045045797500111</v>
       </c>
       <c r="R14">
-        <v>1.026667173510837</v>
+        <v>54.405412177501</v>
       </c>
       <c r="S14">
-        <v>0.003998792252987152</v>
+        <v>0.02033490737359399</v>
       </c>
       <c r="T14">
-        <v>0.003998792252987152</v>
+        <v>0.03166231948551866</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.039248735204421</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H15">
-        <v>8.039248735204421</v>
+        <v>20.394899</v>
       </c>
       <c r="I15">
-        <v>0.246713882939326</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J15">
-        <v>0.246713882939326</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.553741808692665</v>
+        <v>0.088632</v>
       </c>
       <c r="N15">
-        <v>0.553741808692665</v>
+        <v>0.265896</v>
       </c>
       <c r="O15">
-        <v>0.07027945067094503</v>
+        <v>0.01051937432637061</v>
       </c>
       <c r="P15">
-        <v>0.07027945067094503</v>
+        <v>0.01432936202661939</v>
       </c>
       <c r="Q15">
-        <v>4.451668135162315</v>
+        <v>0.602546896056</v>
       </c>
       <c r="R15">
-        <v>4.451668135162315</v>
+        <v>5.422922064504</v>
       </c>
       <c r="S15">
-        <v>0.01733891616587167</v>
+        <v>0.002026905292365587</v>
       </c>
       <c r="T15">
-        <v>0.01733891616587167</v>
+        <v>0.003155978129367071</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.039248735204421</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H16">
-        <v>8.039248735204421</v>
+        <v>20.394899</v>
       </c>
       <c r="I16">
-        <v>0.246713882939326</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J16">
-        <v>0.246713882939326</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.887055446878028</v>
+        <v>6.7207635</v>
       </c>
       <c r="N16">
-        <v>0.887055446878028</v>
+        <v>13.441527</v>
       </c>
       <c r="O16">
-        <v>0.1125827389996808</v>
+        <v>0.797660292168841</v>
       </c>
       <c r="P16">
-        <v>0.1125827389996808</v>
+        <v>0.7243753443962272</v>
       </c>
       <c r="Q16">
-        <v>7.131259379370379</v>
+        <v>45.6897642617955</v>
       </c>
       <c r="R16">
-        <v>7.131259379370379</v>
+        <v>274.138585570773</v>
       </c>
       <c r="S16">
-        <v>0.02777572469055593</v>
+        <v>0.1536956303241207</v>
       </c>
       <c r="T16">
-        <v>0.02777572469055593</v>
+        <v>0.1595404415158445</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H17">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I17">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J17">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.3106384182577</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N17">
-        <v>6.3106384182577</v>
+        <v>0.481669</v>
       </c>
       <c r="O17">
-        <v>0.8009295929183963</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P17">
-        <v>0.8009295929183963</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q17">
-        <v>50.73279192231065</v>
+        <v>1.364011467636</v>
       </c>
       <c r="R17">
-        <v>50.73279192231065</v>
+        <v>12.276103208724</v>
       </c>
       <c r="S17">
-        <v>0.1976004498299112</v>
+        <v>0.004588393170216929</v>
       </c>
       <c r="T17">
-        <v>0.1976004498299112</v>
+        <v>0.007144324181640154</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.01152113025883</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H18">
-        <v>6.01152113025883</v>
+        <v>25.486596</v>
       </c>
       <c r="I18">
-        <v>0.1844856116869792</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J18">
-        <v>0.1844856116869792</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.127706855121299</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N18">
-        <v>0.127706855121299</v>
+        <v>1.699334</v>
       </c>
       <c r="O18">
-        <v>0.01620821741097792</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P18">
-        <v>0.01620821741097792</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q18">
-        <v>0.767712458040592</v>
+        <v>4.812248791895999</v>
       </c>
       <c r="R18">
-        <v>0.767712458040592</v>
+        <v>43.31023912706399</v>
       </c>
       <c r="S18">
-        <v>0.002990182903419808</v>
+        <v>0.01618790605066428</v>
       </c>
       <c r="T18">
-        <v>0.002990182903419808</v>
+        <v>0.02520526126631211</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,122 +1588,122 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.01152113025883</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H19">
-        <v>6.01152113025883</v>
+        <v>25.486596</v>
       </c>
       <c r="I19">
-        <v>0.1844856116869792</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J19">
-        <v>0.1844856116869792</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.553741808692665</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N19">
-        <v>0.553741808692665</v>
+        <v>2.667599</v>
       </c>
       <c r="O19">
-        <v>0.07027945067094503</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P19">
-        <v>0.07027945067094503</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q19">
-        <v>3.328830583663698</v>
+        <v>7.554224222556</v>
       </c>
       <c r="R19">
-        <v>3.328830583663698</v>
+        <v>67.988018003004</v>
       </c>
       <c r="S19">
-        <v>0.01296554744605418</v>
+        <v>0.0254116271391298</v>
       </c>
       <c r="T19">
-        <v>0.01296554744605418</v>
+        <v>0.03956698903732458</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.01152113025883</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H20">
-        <v>6.01152113025883</v>
+        <v>25.486596</v>
       </c>
       <c r="I20">
-        <v>0.1844856116869792</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J20">
-        <v>0.1844856116869792</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.887055446878028</v>
+        <v>0.088632</v>
       </c>
       <c r="N20">
-        <v>0.887055446878028</v>
+        <v>0.265896</v>
       </c>
       <c r="O20">
-        <v>0.1125827389996808</v>
+        <v>0.01051937432637061</v>
       </c>
       <c r="P20">
-        <v>0.1125827389996808</v>
+        <v>0.01432936202661939</v>
       </c>
       <c r="Q20">
-        <v>5.332552562618454</v>
+        <v>0.7529759922239999</v>
       </c>
       <c r="R20">
-        <v>5.332552562618454</v>
+        <v>6.776783930016</v>
       </c>
       <c r="S20">
-        <v>0.02076989546975164</v>
+        <v>0.002532933176907795</v>
       </c>
       <c r="T20">
-        <v>0.02076989546975164</v>
+        <v>0.003943885163050539</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.01152113025883</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H21">
-        <v>6.01152113025883</v>
+        <v>25.486596</v>
       </c>
       <c r="I21">
-        <v>0.1844856116869792</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J21">
-        <v>0.1844856116869792</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.3106384182577</v>
+        <v>6.7207635</v>
       </c>
       <c r="N21">
-        <v>6.3106384182577</v>
+        <v>13.441527</v>
       </c>
       <c r="O21">
-        <v>0.8009295929183963</v>
+        <v>0.797660292168841</v>
       </c>
       <c r="P21">
-        <v>0.8009295929183963</v>
+        <v>0.7243753443962272</v>
       </c>
       <c r="Q21">
-        <v>37.93653619677932</v>
+        <v>57.09646137868199</v>
       </c>
       <c r="R21">
-        <v>37.93653619677932</v>
+        <v>342.578768272092</v>
       </c>
       <c r="S21">
-        <v>0.1477599858677536</v>
+        <v>0.1920665768943604</v>
       </c>
       <c r="T21">
-        <v>0.1477599858677536</v>
+        <v>0.1993705768572796</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.87127167097911</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H22">
-        <v>6.87127167097911</v>
+        <v>18.837682</v>
       </c>
       <c r="I22">
-        <v>0.2108702156775774</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J22">
-        <v>0.2108702156775774</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.127706855121299</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N22">
-        <v>0.127706855121299</v>
+        <v>0.481669</v>
       </c>
       <c r="O22">
-        <v>0.01620821741097792</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P22">
-        <v>0.01620821741097792</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q22">
-        <v>0.8775084957848153</v>
+        <v>1.008169716806445</v>
       </c>
       <c r="R22">
-        <v>0.8775084957848153</v>
+        <v>9.073527451258</v>
       </c>
       <c r="S22">
-        <v>0.003417830301201978</v>
+        <v>0.003391378410499322</v>
       </c>
       <c r="T22">
-        <v>0.003417830301201978</v>
+        <v>0.005280521064431181</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.87127167097911</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H23">
-        <v>6.87127167097911</v>
+        <v>18.837682</v>
       </c>
       <c r="I23">
-        <v>0.2108702156775774</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J23">
-        <v>0.2108702156775774</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.553741808692665</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N23">
-        <v>0.553741808692665</v>
+        <v>1.699334</v>
       </c>
       <c r="O23">
-        <v>0.07027945067094503</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P23">
-        <v>0.07027945067094503</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q23">
-        <v>3.804910403106643</v>
+        <v>3.556834833754222</v>
       </c>
       <c r="R23">
-        <v>3.804910403106643</v>
+        <v>32.011513503788</v>
       </c>
       <c r="S23">
-        <v>0.01481984292068384</v>
+        <v>0.01196482364409471</v>
       </c>
       <c r="T23">
-        <v>0.01481984292068384</v>
+        <v>0.01862974154970342</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,114 +1901,486 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.87127167097911</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H24">
-        <v>6.87127167097911</v>
+        <v>18.837682</v>
       </c>
       <c r="I24">
-        <v>0.2108702156775774</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J24">
-        <v>0.2108702156775774</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.887055446878028</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N24">
-        <v>0.887055446878028</v>
+        <v>2.667599</v>
       </c>
       <c r="O24">
-        <v>0.1125827389996808</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P24">
-        <v>0.1125827389996808</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q24">
-        <v>6.095198962720708</v>
+        <v>5.583486851724223</v>
       </c>
       <c r="R24">
-        <v>6.095198962720708</v>
+        <v>50.251381665518</v>
       </c>
       <c r="S24">
-        <v>0.02374034645443508</v>
+        <v>0.01878227092976626</v>
       </c>
       <c r="T24">
-        <v>0.02374034645443508</v>
+        <v>0.02924479821403402</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H25">
+        <v>18.837682</v>
+      </c>
+      <c r="I25">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J25">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.088632</v>
+      </c>
+      <c r="N25">
+        <v>0.265896</v>
+      </c>
+      <c r="O25">
+        <v>0.01051937432637061</v>
+      </c>
+      <c r="P25">
+        <v>0.01432936202661939</v>
+      </c>
+      <c r="Q25">
+        <v>0.556540477008</v>
+      </c>
+      <c r="R25">
+        <v>5.008864293072</v>
+      </c>
+      <c r="S25">
+        <v>0.00187214446816824</v>
+      </c>
+      <c r="T25">
+        <v>0.002915008914727734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H26">
+        <v>18.837682</v>
+      </c>
+      <c r="I26">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J26">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.7207635</v>
+      </c>
+      <c r="N26">
+        <v>13.441527</v>
+      </c>
+      <c r="O26">
+        <v>0.797660292168841</v>
+      </c>
+      <c r="P26">
+        <v>0.7243753443962272</v>
+      </c>
+      <c r="Q26">
+        <v>42.20120187006901</v>
+      </c>
+      <c r="R26">
+        <v>253.207211220414</v>
+      </c>
+      <c r="S26">
+        <v>0.1419604680972112</v>
+      </c>
+      <c r="T26">
+        <v>0.1473590089078194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6.87127167097911</v>
-      </c>
-      <c r="H25">
-        <v>6.87127167097911</v>
-      </c>
-      <c r="I25">
-        <v>0.2108702156775774</v>
-      </c>
-      <c r="J25">
-        <v>0.2108702156775774</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>6.3106384182577</v>
-      </c>
-      <c r="N25">
-        <v>6.3106384182577</v>
-      </c>
-      <c r="O25">
-        <v>0.8009295929183963</v>
-      </c>
-      <c r="P25">
-        <v>0.8009295929183963</v>
-      </c>
-      <c r="Q25">
-        <v>43.36211098916655</v>
-      </c>
-      <c r="R25">
-        <v>43.36211098916655</v>
-      </c>
-      <c r="S25">
-        <v>0.1688921960012565</v>
-      </c>
-      <c r="T25">
-        <v>0.1688921960012565</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8.750795</v>
+      </c>
+      <c r="H27">
+        <v>17.50159</v>
+      </c>
+      <c r="I27">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J27">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1605563333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.481669</v>
+      </c>
+      <c r="O27">
+        <v>0.01905578313479183</v>
+      </c>
+      <c r="P27">
+        <v>0.02595755287029415</v>
+      </c>
+      <c r="Q27">
+        <v>1.404995558951667</v>
+      </c>
+      <c r="R27">
+        <v>8.42997335371</v>
+      </c>
+      <c r="S27">
+        <v>0.004726259404586841</v>
+      </c>
+      <c r="T27">
+        <v>0.004905991865455532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>8.750795</v>
+      </c>
+      <c r="H28">
+        <v>17.50159</v>
+      </c>
+      <c r="I28">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J28">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.5664446666666666</v>
+      </c>
+      <c r="N28">
+        <v>1.699334</v>
+      </c>
+      <c r="O28">
+        <v>0.06722903109309158</v>
+      </c>
+      <c r="P28">
+        <v>0.09157855736883304</v>
+      </c>
+      <c r="Q28">
+        <v>4.956841156843333</v>
+      </c>
+      <c r="R28">
+        <v>29.74104694106</v>
+      </c>
+      <c r="S28">
+        <v>0.01667429977647342</v>
+      </c>
+      <c r="T28">
+        <v>0.0173083980507195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8.750795</v>
+      </c>
+      <c r="H29">
+        <v>17.50159</v>
+      </c>
+      <c r="I29">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J29">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.8891996666666667</v>
+      </c>
+      <c r="N29">
+        <v>2.667599</v>
+      </c>
+      <c r="O29">
+        <v>0.105535519276905</v>
+      </c>
+      <c r="P29">
+        <v>0.1437591833380263</v>
+      </c>
+      <c r="Q29">
+        <v>7.781203997068334</v>
+      </c>
+      <c r="R29">
+        <v>46.68722398241</v>
+      </c>
+      <c r="S29">
+        <v>0.0261751635696224</v>
+      </c>
+      <c r="T29">
+        <v>0.02717056525185825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.750795</v>
+      </c>
+      <c r="H30">
+        <v>17.50159</v>
+      </c>
+      <c r="I30">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J30">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.088632</v>
+      </c>
+      <c r="N30">
+        <v>0.265896</v>
+      </c>
+      <c r="O30">
+        <v>0.01051937432637061</v>
+      </c>
+      <c r="P30">
+        <v>0.01432936202661939</v>
+      </c>
+      <c r="Q30">
+        <v>0.77560046244</v>
+      </c>
+      <c r="R30">
+        <v>4.65360277464</v>
+      </c>
+      <c r="S30">
+        <v>0.002609039549238217</v>
+      </c>
+      <c r="T30">
+        <v>0.002708257357349475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.750795</v>
+      </c>
+      <c r="H31">
+        <v>17.50159</v>
+      </c>
+      <c r="I31">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J31">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.7207635</v>
+      </c>
+      <c r="N31">
+        <v>13.441527</v>
+      </c>
+      <c r="O31">
+        <v>0.797660292168841</v>
+      </c>
+      <c r="P31">
+        <v>0.7243753443962272</v>
+      </c>
+      <c r="Q31">
+        <v>58.81202363198251</v>
+      </c>
+      <c r="R31">
+        <v>235.24809452793</v>
+      </c>
+      <c r="S31">
+        <v>0.1978375504623236</v>
+      </c>
+      <c r="T31">
+        <v>0.1369073411851311</v>
       </c>
     </row>
   </sheetData>
